--- a/medicine/Enfance/Rosie_O'Donnell/Rosie_O'Donnell.xlsx
+++ b/medicine/Enfance/Rosie_O'Donnell/Rosie_O'Donnell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rosie_O%27Donnell</t>
+          <t>Rosie_O'Donnell</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Roseanne O’Donnell dite Rosie O'Donnell est une animatrice de télévision, actrice, humoriste, auteure et productrice de télévision américaine née le 21 mars 1962 à Commack (Long Island) dans l'état de New York. Connue pour ses talk shows The Rosie O’Donnell Show (1996–2002) et The View (2006-2014). Par ailleurs, elle est une militante pour les droits des LGBT.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rosie_O%27Donnell</t>
+          <t>Rosie_O'Donnell</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,18 +524,20 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosie O'Donnell, née Roseann O'Donnell[1], est le troisième des cinq enfants de Roseann et d'Edward O'Donnell, un ingénieur électricien. Quand Rosie a 10 ans, sa mère décède des suites d'un cancer, son père durement affecté s'éloigne affectivement de ses enfants, et enlève tout ce qui dans le foyer familial rappelle le souvenir de son épouse disparue. Un souvenir a échappé au nettoyage, une collection de disques. Rosie O'Donnell et sa fratrie ont souvent cherché du réconfort en écoutant les albums de leur mère, en particulier les disques de Barbra Streisand[2].
-Rosie annonce en 2019 qu'elle a été victime d'agressions sexuelles de la part de son père[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosie O'Donnell, née Roseann O'Donnell, est le troisième des cinq enfants de Roseann et d'Edward O'Donnell, un ingénieur électricien. Quand Rosie a 10 ans, sa mère décède des suites d'un cancer, son père durement affecté s'éloigne affectivement de ses enfants, et enlève tout ce qui dans le foyer familial rappelle le souvenir de son épouse disparue. Un souvenir a échappé au nettoyage, une collection de disques. Rosie O'Donnell et sa fratrie ont souvent cherché du réconfort en écoutant les albums de leur mère, en particulier les disques de Barbra Streisand.
+Rosie annonce en 2019 qu'elle a été victime d'agressions sexuelles de la part de son père.
 Comme actrice, elle participe à de petits rôles comme dans la série Beverly Hills 90210 en 1993, Nip/Tuck, Larry et son nombril, Une nounou d'enfer et Queer as Folk.
-En mars 2002, lors de son talk show The View elle déclare être lesbienne, la nouvelle n’entraîne aucune réaction négative, même passe relativement inaperçue, car Rosie avait préparé la nouvelle par maints signes avant-coureurs et multiples sous-entendus[4],[5].
-Après avoir fait un bref retour à l'émission The View en septembre 2014, elle quitte définitivement le talk show en février 2015[6].
-En 2015, Rosie achète pour 4 975 000 $ une villa à West Palm Beach en Floride, qu'elle met en vente pour 6 050 000 $, l'année d'après en 2016[7].
-En 2017, elle prend un tournant dans sa carrière en jouant un rôle de grand-mère dans la série SMILF, rôle qui lui a permis de tenir face à des événements éprouvants comme le suicide de son ex-épouse, Michelle Rounds[8],[9], et sa fille diagnostiquée comme atteinte de trouble du spectre de l'autisme (TSA)[10].
-Rosie et le président Donald Trump entretiennent des rapports agressifs où les insultes fusent de part et d'autre[11].
-En 2019, avec humour, Rosie déclare avoir le béguin pour la présentatrice conservatrice de Fox News, Elisabeth Hasselbeck[12].
-En mars 2020, elle lance un appel de fond pour les acteurs et artistes infectés par le Covid19[13].
+En mars 2002, lors de son talk show The View elle déclare être lesbienne, la nouvelle n’entraîne aucune réaction négative, même passe relativement inaperçue, car Rosie avait préparé la nouvelle par maints signes avant-coureurs et multiples sous-entendus,.
+Après avoir fait un bref retour à l'émission The View en septembre 2014, elle quitte définitivement le talk show en février 2015.
+En 2015, Rosie achète pour 4 975 000 $ une villa à West Palm Beach en Floride, qu'elle met en vente pour 6 050 000 $, l'année d'après en 2016.
+En 2017, elle prend un tournant dans sa carrière en jouant un rôle de grand-mère dans la série SMILF, rôle qui lui a permis de tenir face à des événements éprouvants comme le suicide de son ex-épouse, Michelle Rounds et sa fille diagnostiquée comme atteinte de trouble du spectre de l'autisme (TSA).
+Rosie et le président Donald Trump entretiennent des rapports agressifs où les insultes fusent de part et d'autre.
+En 2019, avec humour, Rosie déclare avoir le béguin pour la présentatrice conservatrice de Fox News, Elisabeth Hasselbeck.
+En mars 2020, elle lance un appel de fond pour les acteurs et artistes infectés par le Covid19.
 En août 2022, elle apparaît dans un épisode de la série A League of their own, série créée par Abbi Jacobson et librement inspirée du film Une Equipe hors du commun (1992) dans lequel elle jouait l'un des rôles principaux.
 </t>
         </is>
